--- a/timesheets/individual/202412075_Malhar_Prajapati.xlsx
+++ b/timesheets/individual/202412075_Malhar_Prajapati.xlsx
@@ -14352,21 +14352,21 @@
     <row r="996" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="H3:N3"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:G14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:G16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:G18"/>
     <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H3:N3"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="H5:N5"/>
     <mergeCell ref="H6:N6"/>
     <mergeCell ref="H8:N8"/>
     <mergeCell ref="H9:N9"/>
-    <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:G14"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
